--- a/data/CPE.xlsx
+++ b/data/CPE.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D67"/>
+  <dimension ref="A1:G67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -371,6 +371,21 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
+          <t>Corequisites</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Concurrent</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Recommended</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
           <t>Terms Typically Offered</t>
         </is>
       </c>
@@ -393,6 +408,21 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>F</t>
         </is>
       </c>
@@ -410,10 +440,25 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Appropriate Math Placement Level; or MATH 117 with a grade of C- or better; or MATH 118 with a grade of C- or better; or consent of instructor.</t>
+          <t>Appropriate Math Placement Level; or MATH 117 with a grade of C- or better; or MATH 118 with a grade of C- or better; or consent of instructor.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -437,7 +482,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>TBDConcurrent: CPE/CSC 101.</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>CPE/CSC 101.</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>TBD</t>
         </is>
       </c>
     </row>
@@ -454,10 +514,25 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>MATH 118 (or equivalent) with a grade of C- or better, significant experience in computer programming, and consent of instructor.</t>
+          <t>MATH 118 (or equivalent) with a grade of C- or better, significant experience in computer programming, and consent of instructor.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -481,6 +556,21 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>F</t>
         </is>
       </c>
@@ -498,10 +588,25 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>An orientation course in student's major (EE 111 and EE 151; or CPE 100) and CPE/CSC 101.</t>
+          <t>An orientation course in student's major (EE 111 and EE 151; or CPE 100) and CPE/CSC 101.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
         <is>
           <t>F,W,SP,SU</t>
         </is>
@@ -525,6 +630,21 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>F,W,SP,SU</t>
         </is>
       </c>
@@ -542,10 +662,25 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CPE/CSC 101 with a grade of C- or better; MATH 141 or MATH 221 with a grade of C- or better; or consent of instructor.</t>
+          <t>CPE/CSC 101 with a grade of C- or better; MATH 141 or MATH 221 with a grade of C- or better; or consent of instructor.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -564,10 +699,25 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CPE/CSC 202 with a grade of C- or better or consent of instructor.</t>
+          <t>CPE/CSC 202 with a grade of C- or better or consent of instructor.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -586,10 +736,25 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>CPE/EE 133.</t>
+          <t>CPE/EE 133.</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -613,6 +778,21 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -630,10 +810,25 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>CSC/CPE 102 and CSC/CPE 103, or CSC/CPE 202 and CSC/CPE 203; and one of the following: CSC 225, CPE/EE 229, or CPE/EE 233.</t>
+          <t>CSC/CPE 102 and CSC/CPE 103, or CSC/CPE 202 and CSC/CPE 203; and one of the CSC 225, CPE/EE 229, or CPE/EE 233.</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -652,12 +847,27 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>CPE 357. Corequisite: EE 211.</t>
+          <t>CPE 357.</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>F, SP</t>
+          <t>EE 211.</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">F, SP </t>
         </is>
       </c>
     </row>
@@ -674,10 +884,25 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>CPE/CSC 357.</t>
+          <t>CPE/CSC 357.</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
         <is>
           <t>F, W</t>
         </is>
@@ -696,12 +921,27 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>EE 212, MATH 244. Concurrent: CPE 367.</t>
+          <t>EE 212, MATH 244.</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>F, W</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>CPE 367.</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">F, W </t>
         </is>
       </c>
     </row>
@@ -718,12 +958,27 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>BMED 355 or EE 228. Concurrent: CPE/EE 368.</t>
+          <t>BMED 355 or EE 228.</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>F, W, SP</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>CPE/EE 368.</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">F, W, SP </t>
         </is>
       </c>
     </row>
@@ -740,10 +995,25 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>EE 307 &amp; EE 347, EE 229 &amp; EE 269 or CPE/EE 233.</t>
+          <t>EE 307 &amp; EE 347, EE 229 &amp; EE 269 or CPE/EE 233.</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
         <is>
           <t>F, SP</t>
         </is>
@@ -762,10 +1032,25 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>CPE 101, CPE 233.</t>
+          <t>CPE 101, CPE 233.</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -784,10 +1069,25 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>CPE/EE 233.</t>
+          <t>CPE/EE 233.</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
         <is>
           <t>F, SP</t>
         </is>
@@ -811,7 +1111,22 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>FCorequisite: CPE 316 or CPE 329 or CPE 336.</t>
+          <t>CPE 316 or CPE 329 or CPE 336.</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>F</t>
         </is>
       </c>
     </row>
@@ -828,10 +1143,25 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>CSC/CPE 102 and CSC/CPE 103 with a grade of C- or better or consent of instructor, or CSC/CPE 202 and CSC/CPE 203 with a grade of C- or better or consent of instructor; and CSC 225 or CPE/EE 229 or CPE/EE 233.</t>
+          <t>CSC/CPE 102 and CSC/CPE 103 with a grade of C- or better or consent of instructor, or CSC/CPE 202 and CSC/CPE 203 with a grade of C- or better or consent of instructor; and CSC 225 or CPE/EE 229 or CPE/EE 233.</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -850,12 +1180,27 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>EE 242. Concurrent: CPE 327.</t>
+          <t>EE 242.</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>F, W</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>CPE 327.</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">F, W </t>
         </is>
       </c>
     </row>
@@ -872,12 +1217,27 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>BMED 355 or EE 228. Concurrent: CPE/EE 328.</t>
+          <t>BMED 355 or EE 228.</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>F, W, SP</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>CPE/EE 328.</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">F, W, SP </t>
         </is>
       </c>
     </row>
@@ -899,6 +1259,21 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
           <t>F,W,SP,SU</t>
         </is>
       </c>
@@ -916,10 +1291,25 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>EE/CPE 329 or EE/CPE 336 or CSC/CPE 357 or ME 305.</t>
+          <t>EE/CPE 329 or EE/CPE 336 or CSC/CPE 357 or ME 305.</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -938,10 +1328,25 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>CPE/EE 329 or CPE/EE 336 or both CPE 315 and CPE/CSC 357.</t>
+          <t>CPE/EE 329 or CPE/EE 336 or both CPE 315 and CPE/CSC 357.</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -960,12 +1365,27 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>CPE/CSC 357. Corequisite: CSC 141 or CSC 348. Recommended: CPE 315.</t>
+          <t>CPE/CSC 357.</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>CSC 141 or CSC 348.</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>CPE 315.</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TBD  </t>
         </is>
       </c>
     </row>
@@ -982,10 +1402,25 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>CPE 464.</t>
+          <t>CPE 464.</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -1004,10 +1439,25 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>CPE 315 or CPE 333; and CPE 233.</t>
+          <t>CPE 315 or CPE 333; and CPE 233.</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -1026,10 +1476,25 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>CPE 327 or CPE/CSC 357 or EE 328 or ME 305.</t>
+          <t>CPE 327 or CPE/CSC 357 or EE 328 or ME 305.</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -1048,10 +1513,25 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>CSC 430.</t>
+          <t>CSC 430.</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -1070,12 +1550,27 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>EE 302 and EE 342; or CPE 327 and CPE 367. Concurrent: CPE/EE 472. Recommended: EE 328 and EE 368.</t>
+          <t>EE 302 and EE 342; or CPE 327 and CPE 367.</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>CPE/EE 472.</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>EE 328 and EE 368.</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">F  </t>
         </is>
       </c>
     </row>
@@ -1092,10 +1587,25 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>CPE/EE 329 or CPE/EE 336.</t>
+          <t>CPE/EE 329 or CPE/EE 336.</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -1114,12 +1624,27 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>EE 307 and EE 347. Recommended: EE 308 and EE 348, for students interested in analog design.</t>
+          <t>EE 307 and EE 347.</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>EE 308 and EE 348, for students interested in analog design.</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">F </t>
         </is>
       </c>
     </row>
@@ -1136,10 +1661,25 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>CPE/EE 329 or CPE/EE 336 or CPE 316.</t>
+          <t>CPE/EE 329 or CPE/EE 336 or CPE 316.</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -1158,12 +1698,27 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>CPE/EE 329 or CPE/EE 336 or CPE 316. Recommended: STAT 350.</t>
+          <t>CPE/EE 329 or CPE/EE 336 or CPE 316.</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>STAT 350.</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">F </t>
         </is>
       </c>
     </row>
@@ -1180,10 +1735,25 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>EE/CPE 329 or EE/CPE 336 or CPE 316 or ME 305.</t>
+          <t>EE/CPE 329 or EE/CPE 336 or CPE 316 or ME 305.</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -1202,10 +1772,25 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>CPE 350.</t>
+          <t>CPE 350.</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -1224,10 +1809,25 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>CSC/CPE 357, and CSC/CPE 225 or CPE/EE 229 or CPE/EE 233.</t>
+          <t>CSC/CPE 357, and CSC/CPE 225 or CPE/EE 229 or CPE/EE 233.</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -1246,10 +1846,25 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>CSC/CPE 453.</t>
+          <t>CSC/CPE 453.</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -1268,10 +1883,25 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>CSC/CPE 357.</t>
+          <t>CSC/CPE 357.</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -1290,10 +1920,25 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>CPE 350.</t>
+          <t>CPE 350.</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
         <is>
           <t>F,W,SP,SU</t>
         </is>
@@ -1312,10 +1957,25 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>CPE 450.</t>
+          <t>CPE 450.</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
         <is>
           <t>F,W,SP,SU</t>
         </is>
@@ -1334,12 +1994,27 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>CSC/CPE 357. Recommended: STAT 312 or STAT 321 or STAT 350.</t>
+          <t>CSC/CPE 357.</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>F, W, SP</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>STAT 312 or STAT 321 or STAT 350.</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">F, W, SP </t>
         </is>
       </c>
     </row>
@@ -1356,10 +2031,25 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>CSC/CPE 453 and CPE 464.</t>
+          <t>CSC/CPE 453 and CPE 464.</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -1378,10 +2068,25 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>CSC/CPE 357.</t>
+          <t>CSC/CPE 357.</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -1405,6 +2110,21 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -1422,10 +2142,25 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>CPE/CSC 357.</t>
+          <t>CPE/CSC 357.</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -1449,7 +2184,22 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>FConcurrent: CPE/EE 432.</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>CPE/EE 432.</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>F</t>
         </is>
       </c>
     </row>
@@ -1466,10 +2216,25 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>CSC/CPE 471.</t>
+          <t>CSC/CPE 471.</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -1493,6 +2258,21 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -1515,7 +2295,22 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>TBDCorequisite: CPE 350.</t>
+          <t>CPE 350.</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>TBD</t>
         </is>
       </c>
     </row>
@@ -1532,10 +2327,25 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>CPE/CSC 357.</t>
+          <t>CPE/CSC 357.</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -1554,12 +2364,27 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>EE 112 or EE 113 or EE 201. Recommended: MATE 210.</t>
+          <t>EE 112 or EE 113 or EE 201.</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>F, W, SP</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>MATE 210.</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">F, W, SP </t>
         </is>
       </c>
     </row>
@@ -1581,6 +2406,21 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
           <t>F,W,SP,SU</t>
         </is>
       </c>
@@ -1603,6 +2443,21 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
           <t>F,W,SP,SU</t>
         </is>
       </c>
@@ -1625,6 +2480,21 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
           <t>F,W,SP,SU</t>
         </is>
       </c>
@@ -1642,10 +2512,25 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>CPE 315 or CPE 333, and graduate standing; or consent of instructor.</t>
+          <t>CPE 315 or CPE 333, and graduate standing; or consent of instructor.</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -1664,10 +2549,25 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>CPE/EE 329 or CPE/EE 336, or equivalent, and graduate standing or consent of instructor.</t>
+          <t>CPE/EE 329 or CPE/EE 336, or equivalent, and graduate standing or consent of instructor.</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -1686,10 +2586,25 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>CPE/EE 439.</t>
+          <t>CPE/EE 439.</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -1708,10 +2623,25 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>CPE/EE 329 or CPE/EE 336, and graduate standing.</t>
+          <t>CPE/EE 329 or CPE/EE 336, and graduate standing.</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -1730,10 +2660,25 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>EE 531/CPE 541.</t>
+          <t>EE 531/CPE 541.</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -1752,10 +2697,25 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>CPE 441/EE 431.</t>
+          <t>CPE 441/EE 431.</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -1774,10 +2734,25 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>CPE/EE 442.</t>
+          <t>CPE/EE 442.</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -1796,10 +2771,25 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>CSC/CPE 464 and graduate standing, or consent of instructor.</t>
+          <t>CSC/CPE 464 and graduate standing, or consent of instructor.</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -1818,10 +2808,25 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>CSC 141 or CSC 348; and CPE/CSC 357; or graduate standing and consent of instructor.</t>
+          <t>CSC 141 or CSC 348; and CPE/CSC 357; or graduate standing and consent of instructor.</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
